--- a/data/database/Power_VRES.xlsx
+++ b/data/database/Power_VRES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B433959-ECC5-4C5F-A063-F120DE6923A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA8D946-7282-4F57-A377-18A74D2D691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
     <author>Felix Auer</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{DFF133C1-62C6-4D59-8265-65CD2298CFCF}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{BAB99F5D-7392-43B5-A72C-1E65AB4E223E}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B1010596-5177-4714-B442-2297BB92BE1A}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DDABD7B5-CEDE-4A1E-ADAF-9D2927515200}">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B3D51C5E-C545-4D23-97A3-F6134CD3C6F7}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B092A3A9-50BB-4556-AD58-C1C4D42F4653}">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{4FF93898-86E2-4AC0-A367-D745F98FBF0E}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{2EB7BCE2-FB24-4E41-BEE6-A4F857452B5F}">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{9438D27F-DA18-4A39-90ED-A69A15C1D696}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{25C89E24-B874-4405-B1C5-5F325037F6C6}">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{FC358F35-0406-4262-B577-CF2EDC6F05D5}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{B881E701-CB8A-451D-9829-447062285BDD}">
       <text>
         <r>
           <rPr>
@@ -254,14 +254,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="77">
   <si>
     <t>[MW]</t>
   </si>
   <si>
-    <t>[p.u.]</t>
-  </si>
-  <si>
     <t>[€/MWh]</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
     <t>dataSource</t>
   </si>
   <si>
-    <t>Which package this node belongs to</t>
-  </si>
-  <si>
     <t>Where the data for the entry comes from</t>
   </si>
   <si>
@@ -431,6 +425,66 @@
   </si>
   <si>
     <t>TestSource1</t>
+  </si>
+  <si>
+    <t>[%, 0-1]</t>
+  </si>
+  <si>
+    <t>Name of generator</t>
+  </si>
+  <si>
+    <t>Corresponding technology</t>
+  </si>
+  <si>
+    <t>Node where generator is connected</t>
+  </si>
+  <si>
+    <t>Number of existing VRE units</t>
+  </si>
+  <si>
+    <t>Maximum active power output of VRE unit</t>
+  </si>
+  <si>
+    <t>Whether the model can invest in additional units (1) or not (0)</t>
+  </si>
+  <si>
+    <t>Maximum number of VRE units that can be invested in</t>
+  </si>
+  <si>
+    <t>Annualized investment cost per MW</t>
+  </si>
+  <si>
+    <t>Operation and maintenance cost of VRE unit</t>
+  </si>
+  <si>
+    <t>Firm capacity coefficient of VRE unit</t>
+  </si>
+  <si>
+    <t>Maximum reactive power output of VRE unit</t>
+  </si>
+  <si>
+    <t>Minimum reactive power output of VRE unit</t>
+  </si>
+  <si>
+    <t>Inertia constant H of VRE unit</t>
+  </si>
+  <si>
+    <t>Which package this belongs to</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Scenario-dependent</t>
+  </si>
+  <si>
+    <t>Year where it is commissioned (1.1.xxxx)</t>
+  </si>
+  <si>
+    <t>Year where it is decommissioned (31.12.xxxx)</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1130,7 @@
     <col min="6" max="10" width="13.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
     <col min="12" max="15" width="13.42578125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="14" style="2" customWidth="1"/>
+    <col min="16" max="17" width="17.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1087,15 +1141,15 @@
   <sheetData>
     <row r="1" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1110,82 +1164,82 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="K3" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="O3" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="T3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -1202,127 +1256,195 @@
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="T5" s="20" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="T6" s="21" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
@@ -1332,13 +1454,13 @@
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="26">
         <v>23</v>
@@ -1379,10 +1501,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
@@ -1392,13 +1514,13 @@
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="26">
         <v>0</v>
@@ -1439,10 +1561,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="T9" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="13"/>
@@ -1452,13 +1574,13 @@
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="26">
         <v>29</v>
@@ -1499,10 +1621,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="13"/>
@@ -1512,13 +1634,13 @@
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="26">
         <v>35</v>
@@ -1559,10 +1681,10 @@
         <v>14.479570000000001</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="13"/>
@@ -1664,8 +1786,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection activeCell="P5" sqref="P5:Q5"/>
+      <selection pane="topRight" activeCell="P5" sqref="P5:Q5"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5:Q5"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1679,7 +1802,7 @@
     <col min="6" max="10" width="13.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
     <col min="12" max="15" width="13.42578125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="14" style="2" customWidth="1"/>
+    <col min="16" max="17" width="17.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1690,15 +1813,15 @@
   <sheetData>
     <row r="1" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1713,82 +1836,82 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="K3" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="O3" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="T3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -1805,127 +1928,195 @@
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="T5" s="20" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="T6" s="21" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
@@ -1935,13 +2126,13 @@
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="26">
         <v>0</v>
@@ -1982,10 +2173,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
@@ -1995,13 +2186,13 @@
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="26">
         <v>0</v>
@@ -2042,10 +2233,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="T9" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="13"/>
@@ -2055,13 +2246,13 @@
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="26">
         <v>0</v>
@@ -2102,10 +2293,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="13"/>
@@ -2115,13 +2306,13 @@
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="26">
         <v>0</v>
@@ -2162,10 +2353,10 @@
         <v>14.479570000000001</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="13"/>
@@ -2268,12 +2459,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2419,6 +2604,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
@@ -2428,22 +2619,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2459,4 +2634,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>